--- a/wwwroot/Reports/software_report.xlsx
+++ b/wwwroot/Reports/software_report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Отчёт по программам</t>
   </si>
@@ -93,19 +93,286 @@
     <t>Полная</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>/Files/Adobe_Photoshop_CC_icon.svg.png</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>/Files/10.tif</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>Visual Studio</t>
+  </si>
+  <si>
+    <t>Visual Studio — интегрированная среда разработки программного обеспечения от Microsoft.</t>
+  </si>
+  <si>
+    <t>/Files/visualstudio.jpg</t>
+  </si>
+  <si>
+    <t>http://www.visualstudio.com</t>
+  </si>
+  <si>
+    <t>Windows 10, 8 ГБ ОЗУ, 20 ГБ свободного места на диске</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Подписка</t>
+  </si>
+  <si>
+    <t>Adobe Illustrator</t>
+  </si>
+  <si>
+    <t>Adobe Illustrator — профессиональное программное обеспечение для создания и редактирования векторной графики.</t>
+  </si>
+  <si>
+    <t>/Files/illustrator.jpg</t>
+  </si>
+  <si>
+    <t>http://www.adobe.com/products/illustrator.html</t>
+  </si>
+  <si>
+    <t>Windows 10, 4 ГБ ОЗУ, 2 ГБ свободного места на диске</t>
+  </si>
+  <si>
+    <t>Adobe Creative Cloud</t>
+  </si>
+  <si>
+    <t>Autodesk AutoCAD</t>
+  </si>
+  <si>
+    <t>Autodesk AutoCAD — программное обеспечение для 2D и 3D проектирования и черчения.</t>
+  </si>
+  <si>
+    <t>/Files/autocad.jpg</t>
+  </si>
+  <si>
+    <t>http://www.autodesk.com/autocad</t>
+  </si>
+  <si>
+    <t>Windows 10, 8 ГБ ОЗУ, 10 ГБ свободного места на диске</t>
+  </si>
+  <si>
+    <t>Autodesk</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox — популярный веб-браузер с открытым исходным кодом.</t>
+  </si>
+  <si>
+    <t>/Files/firefox.jpg</t>
+  </si>
+  <si>
+    <t>http://www.mozilla.org/firefox</t>
+  </si>
+  <si>
+    <t>Windows 10, 2 ГБ ОЗУ, 200 МБ свободного места на диске</t>
+  </si>
+  <si>
+    <t>Mozilla</t>
+  </si>
+  <si>
+    <t>Бесплатная</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEA</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEA — интегрированная среда разработки программного обеспечения для языков Java, Kotlin, Groovy и других.</t>
+  </si>
+  <si>
+    <t>/Files/intellij.jpg</t>
+  </si>
+  <si>
+    <t>http://www.jetbrains.com/idea</t>
+  </si>
+  <si>
+    <t>Windows 10, 4 ГБ ОЗУ, 500 МБ свободного места на диске</t>
+  </si>
+  <si>
+    <t>JetBrains</t>
+  </si>
+  <si>
+    <t>Final Cut Pro</t>
+  </si>
+  <si>
+    <t>Final Cut Pro — профессиональная программа для редактирования видео, разработанная компанией Apple.</t>
+  </si>
+  <si>
+    <t>/Files/finalcutpro.jpg</t>
+  </si>
+  <si>
+    <t>http://www.apple.com/final-cut-pro</t>
+  </si>
+  <si>
+    <t>macOS 10.15 и выше, 8 ГБ ОЗУ, 3.8 ГБ свободного места на диске</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>Unity — интегрированная среда разработки игр и визуализаций.</t>
+  </si>
+  <si>
+    <t>/Files/unity.jpg</t>
+  </si>
+  <si>
+    <t>http://www.unity.com</t>
+  </si>
+  <si>
+    <t>Windows 10, 4 ГБ ОЗУ, 20 ГБ свободного места на диске</t>
+  </si>
+  <si>
+    <t>Unity Technologies</t>
+  </si>
+  <si>
+    <t>Adobe Premiere Pro</t>
+  </si>
+  <si>
+    <t>Adobe Premiere Pro — профессиональная программа для редактирования видео.</t>
+  </si>
+  <si>
+    <t>/Files/premierepro.jpg</t>
+  </si>
+  <si>
+    <t>http://www.adobe.com/products/premiere.html</t>
+  </si>
+  <si>
+    <t>Windows 10, 8 ГБ ОЗУ, 8 ГБ свободного места на диске</t>
+  </si>
+  <si>
+    <t>Microsoft Excel</t>
+  </si>
+  <si>
+    <t>Microsoft Excel — программа для работы с электронными таблицами.</t>
+  </si>
+  <si>
+    <t>/Files/excel.jpg</t>
+  </si>
+  <si>
+    <t>http://www.microsoft.com/excel</t>
+  </si>
+  <si>
+    <t>Blender</t>
+  </si>
+  <si>
+    <t>Blender — свободное программное обеспечение для создания трехмерной компьютерной графики.</t>
+  </si>
+  <si>
+    <t>/Files/blender.jpg</t>
+  </si>
+  <si>
+    <t>http://www.blender.org</t>
+  </si>
+  <si>
+    <t>Windows 10, 4 ГБ ОЗУ, 5 ГБ свободного места на диске</t>
+  </si>
+  <si>
+    <t>Blender Foundation</t>
+  </si>
+  <si>
+    <t>Sublime Text</t>
+  </si>
+  <si>
+    <t>Sublime Text — текстовый редактор с широкими возможностями настройки и расширения функционала.</t>
+  </si>
+  <si>
+    <t>/Files/sublimetext.jpg</t>
+  </si>
+  <si>
+    <t>http://www.sublimetext.com</t>
+  </si>
+  <si>
+    <t>Sublime HQ</t>
+  </si>
+  <si>
+    <t>Adobe After Effects</t>
+  </si>
+  <si>
+    <t>Adobe After Effects — программное обеспечение для создания и редактирования видеоэффектов и анимации.</t>
+  </si>
+  <si>
+    <t>/Files/aftereffects.jpg</t>
+  </si>
+  <si>
+    <t>http://www.adobe.com/products/aftereffects.html</t>
+  </si>
+  <si>
+    <t>Windows 10, 8 ГБ ОЗУ, 5 ГБ свободного места на диске</t>
+  </si>
+  <si>
+    <t>Xcode</t>
+  </si>
+  <si>
+    <t>Xcode — интегрированная среда разработки для приложений под iOS и macOS.</t>
+  </si>
+  <si>
+    <t>/Files/xcode.jpg</t>
+  </si>
+  <si>
+    <t>http://developer.apple.com/xcode</t>
+  </si>
+  <si>
+    <t>macOS 10.15 и выше, 8 ГБ ОЗУ, 20 ГБ свободного места на диске</t>
+  </si>
+  <si>
+    <t>PyCharm</t>
+  </si>
+  <si>
+    <t>PyCharm — интегрированная среда разработки для языка Python.</t>
+  </si>
+  <si>
+    <t>/Files/pycharm.jpg</t>
+  </si>
+  <si>
+    <t>http://www.jetbrains.com/pycharm</t>
+  </si>
+  <si>
+    <t>Audacity</t>
+  </si>
+  <si>
+    <t>Audacity — свободное программное обеспечение для обработки звука и звукозаписи.</t>
+  </si>
+  <si>
+    <t>/Files/audacity.jpg</t>
+  </si>
+  <si>
+    <t>http://www.audacityteam.org</t>
+  </si>
+  <si>
+    <t>Windows 10, 2 ГБ ОЗУ, 100 МБ свободного места на диске</t>
+  </si>
+  <si>
+    <t>Audacity Team</t>
+  </si>
+  <si>
+    <t>MATLAB</t>
+  </si>
+  <si>
+    <t>MATLAB — высокоуровневый язык программирования и среда разработки, предназначенная для численных расчетов и визуализации данных.</t>
+  </si>
+  <si>
+    <t>/Files/matlab.jpg</t>
+  </si>
+  <si>
+    <t>http://www.mathworks.com/matlab</t>
+  </si>
+  <si>
+    <t>MathWorks</t>
+  </si>
+  <si>
+    <t>Atom</t>
+  </si>
+  <si>
+    <t>Atom — открытый текстовый редактор, разработанный компанией GitHub.</t>
+  </si>
+  <si>
+    <t>/Files/atom.jpg</t>
+  </si>
+  <si>
+    <t>http://www.atom.io</t>
+  </si>
+  <si>
+    <t>GitHub</t>
   </si>
 </sst>
 </file>
@@ -427,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
@@ -559,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -574,28 +841,28 @@
         <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M4" s="0">
-        <v>2</v>
+        <v>1499</v>
       </c>
       <c r="N4" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -603,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
@@ -615,31 +882,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M5" s="0">
-        <v>3</v>
+        <v>999</v>
       </c>
       <c r="N5" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -647,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0">
         <v>0</v>
@@ -659,31 +926,647 @@
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="0">
-        <v>4</v>
+        <v>1999</v>
       </c>
       <c r="N6" s="0">
-        <v>4</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0">
+        <v>42</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="0">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0">
+        <v>43</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="0">
+        <v>499</v>
+      </c>
+      <c r="N8" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0">
+        <v>44</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="0">
+        <v>2999</v>
+      </c>
+      <c r="N9" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0">
+        <v>45</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="0">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0">
+        <v>46</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="0">
+        <v>999</v>
+      </c>
+      <c r="N11" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0">
+        <v>47</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="0">
+        <v>999</v>
+      </c>
+      <c r="N12" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0">
+        <v>48</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="0">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0">
+        <v>49</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="0">
+        <v>99</v>
+      </c>
+      <c r="N14" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="0">
+        <v>999</v>
+      </c>
+      <c r="N15" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0">
+        <v>51</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="0">
+        <v>0</v>
+      </c>
+      <c r="N16" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="0">
+        <v>499</v>
+      </c>
+      <c r="N17" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0">
+        <v>53</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="0">
+        <v>0</v>
+      </c>
+      <c r="N18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0">
+        <v>54</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="0">
+        <v>1999</v>
+      </c>
+      <c r="N19" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0">
+        <v>55</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="0">
+        <v>0</v>
+      </c>
+      <c r="N20" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/wwwroot/Reports/software_report.xlsx
+++ b/wwwroot/Reports/software_report.xlsx
@@ -785,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>15</v>
@@ -829,13 +829,13 @@
         <v>39</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>22</v>
@@ -873,13 +873,13 @@
         <v>40</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
       </c>
       <c r="E5" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>29</v>
@@ -917,13 +917,13 @@
         <v>41</v>
       </c>
       <c r="C6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>35</v>
@@ -961,13 +961,13 @@
         <v>42</v>
       </c>
       <c r="C7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="0">
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>41</v>
@@ -1005,13 +1005,13 @@
         <v>43</v>
       </c>
       <c r="C8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>48</v>
@@ -1049,13 +1049,13 @@
         <v>44</v>
       </c>
       <c r="C9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0">
         <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>54</v>
@@ -1093,13 +1093,13 @@
         <v>45</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>60</v>
@@ -1137,13 +1137,13 @@
         <v>46</v>
       </c>
       <c r="C11" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="0">
         <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>66</v>
@@ -1181,13 +1181,13 @@
         <v>47</v>
       </c>
       <c r="C12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>71</v>
@@ -1225,13 +1225,13 @@
         <v>48</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>75</v>
@@ -1269,13 +1269,13 @@
         <v>49</v>
       </c>
       <c r="C14" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>81</v>
@@ -1313,13 +1313,13 @@
         <v>50</v>
       </c>
       <c r="C15" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>86</v>
@@ -1357,13 +1357,13 @@
         <v>51</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
       </c>
       <c r="E16" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>91</v>
@@ -1401,13 +1401,13 @@
         <v>52</v>
       </c>
       <c r="C17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
       </c>
       <c r="E17" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>96</v>
@@ -1445,13 +1445,13 @@
         <v>53</v>
       </c>
       <c r="C18" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="0">
         <v>0</v>
       </c>
       <c r="E18" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>100</v>
@@ -1489,13 +1489,13 @@
         <v>54</v>
       </c>
       <c r="C19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>106</v>
@@ -1533,13 +1533,13 @@
         <v>55</v>
       </c>
       <c r="C20" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="0">
         <v>0</v>
       </c>
       <c r="E20" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>111</v>
